--- a/docs/数据库设计.xlsx
+++ b/docs/数据库设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="article" sheetId="1" r:id="rId1"/>
@@ -12,226 +12,507 @@
     <sheet name="article_tag" sheetId="3" r:id="rId3"/>
     <sheet name="user" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>in_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>int(64)</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>自增ID</t>
+  </si>
+  <si>
+    <t>文章标题</t>
+  </si>
+  <si>
+    <t>文章内容</t>
+  </si>
+  <si>
+    <t>浏览次数</t>
+  </si>
+  <si>
+    <t>发表日期</t>
   </si>
   <si>
     <t>tagname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名</t>
+  </si>
+  <si>
+    <t>父标签ID</t>
   </si>
   <si>
     <t>article_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tag_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章ID</t>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>avatar_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>domain_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>article_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wechat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>weibo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick</t>
+  </si>
+  <si>
+    <t>cookie</t>
   </si>
   <si>
     <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>头像URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>个人域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>个人简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -239,17 +520,306 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -540,24 +1110,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,271 +1144,277 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8796296296296" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.3796296296296" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="13.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="14.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="14.1296296296296" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="18.1296296296296" customWidth="1"/>
+    <col min="7" max="7" width="14.6296296296296" customWidth="1"/>
     <col min="8" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/数据库设计.xlsx
+++ b/docs/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="3"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="article" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,12 @@
     <t>in_date</t>
   </si>
   <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>coverPicture</t>
+  </si>
+  <si>
     <t>int(11)</t>
   </si>
   <si>
@@ -64,6 +70,12 @@
     <t>发表日期</t>
   </si>
   <si>
+    <t>文章简介</t>
+  </si>
+  <si>
+    <t>封面图</t>
+  </si>
+  <si>
     <t>tagname</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
   </si>
   <si>
     <t>domain_name</t>
-  </si>
-  <si>
-    <t>introduction</t>
   </si>
   <si>
     <t>wechat</t>
@@ -153,12 +162,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,15 +177,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,14 +206,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,84 +266,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,6 +520,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,11 +547,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,30 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -621,148 +623,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,18 +1118,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,39 +1145,57 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1205,32 +1225,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1259,32 +1279,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1318,7 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1319,98 +1339,98 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
